--- a/fechamentos_2022/esus_covisa_biofast_maio_05012022.xlsx
+++ b/fechamentos_2022/esus_covisa_biofast_maio_05012022.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha8" sheetId="9" r:id="rId2"/>
     <sheet name="Planilha9" sheetId="10" r:id="rId3"/>
-    <sheet name="Planilha5" sheetId="6" r:id="rId4"/>
+    <sheet name="Planilha2" sheetId="6" r:id="rId4"/>
     <sheet name="Planilha4" sheetId="5" r:id="rId5"/>
     <sheet name="Planilha6" sheetId="7" r:id="rId6"/>
     <sheet name="Planilha7" sheetId="8" r:id="rId7"/>
@@ -10041,7 +10041,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10049,12 +10049,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC260"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F31" sqref="A31:XFD281"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10178,7 +10175,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>352181113851</v>
       </c>
@@ -10204,7 +10201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>352183071006</v>
       </c>
@@ -10245,7 +10242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>352181476235</v>
       </c>
@@ -10271,7 +10268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>352180491939</v>
       </c>
@@ -10303,7 +10300,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>352184728801</v>
       </c>
@@ -10335,7 +10332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>352183077724</v>
       </c>
@@ -10367,7 +10364,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>352182874815</v>
       </c>
@@ -10399,7 +10396,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>352183028986</v>
       </c>
@@ -10425,7 +10422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>352183442906</v>
       </c>
@@ -10463,7 +10460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>352182079628</v>
       </c>
@@ -10489,7 +10486,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>352182943266</v>
       </c>
@@ -10530,7 +10527,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>352184729972</v>
       </c>
@@ -10568,7 +10565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>352182492703</v>
       </c>
@@ -10609,7 +10606,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>352183755119</v>
       </c>
@@ -10641,7 +10638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>352184119481</v>
       </c>
@@ -10688,7 +10685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>352184367672</v>
       </c>
@@ -10720,7 +10717,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>352184903671</v>
       </c>
@@ -10761,7 +10758,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>352184476507</v>
       </c>
@@ -10805,7 +10802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>352181417187</v>
       </c>
@@ -10846,7 +10843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>352180691931</v>
       </c>
@@ -10869,7 +10866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>352180914070</v>
       </c>
@@ -10901,7 +10898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>352185218195</v>
       </c>
@@ -10954,7 +10951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>352182735795</v>
       </c>
@@ -10986,7 +10983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>352183021476</v>
       </c>
@@ -11018,7 +11015,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>352183491314</v>
       </c>
@@ -11056,7 +11053,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>352180312556</v>
       </c>
@@ -11088,7 +11085,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>352180874155</v>
       </c>
@@ -11120,7 +11117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>352181796479</v>
       </c>
@@ -11152,7 +11149,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>352182588316</v>
       </c>
@@ -11193,7 +11190,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>352184148083</v>
       </c>
@@ -11216,7 +11213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>352182399706</v>
       </c>
@@ -11254,7 +11251,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>352180738190</v>
       </c>
@@ -11307,7 +11304,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>352184991711</v>
       </c>
@@ -11360,7 +11357,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>352181873887</v>
       </c>
@@ -11392,7 +11389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>352184464570</v>
       </c>
@@ -11436,7 +11433,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>352180377955</v>
       </c>
@@ -11459,7 +11456,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>352180810943</v>
       </c>
@@ -11497,7 +11494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>352183558354</v>
       </c>
@@ -11535,7 +11532,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>352180833237</v>
       </c>
@@ -11573,7 +11570,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>352184189192</v>
       </c>
@@ -11608,7 +11605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>352184719840</v>
       </c>
@@ -11640,7 +11637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>352180329239</v>
       </c>
@@ -11663,7 +11660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>352183747235</v>
       </c>
@@ -11695,7 +11692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>352190600082</v>
       </c>
@@ -11736,7 +11733,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>352180105821</v>
       </c>
@@ -11768,7 +11765,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>352184164654</v>
       </c>
@@ -11821,7 +11818,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>352180731573</v>
       </c>
@@ -11862,7 +11859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>352185394018</v>
       </c>
@@ -11894,7 +11891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>352180726328</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>352183348682</v>
       </c>
@@ -11967,7 +11964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>352182611737</v>
       </c>
@@ -11999,7 +11996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>352184085984</v>
       </c>
@@ -12031,7 +12028,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>352181870405</v>
       </c>
@@ -12063,7 +12060,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>352182664152</v>
       </c>
@@ -12107,7 +12104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>352181332687</v>
       </c>
@@ -12139,7 +12136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>352181977043</v>
       </c>
@@ -12171,7 +12168,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>352182717996</v>
       </c>
@@ -12215,7 +12212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>352180556340</v>
       </c>
@@ -12247,7 +12244,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>352183559808</v>
       </c>
@@ -12282,7 +12279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>352182357858</v>
       </c>
@@ -12323,7 +12320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>352185078627</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>352180894224</v>
       </c>
@@ -12387,7 +12384,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>352183331523</v>
       </c>
@@ -12419,7 +12416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>352184728533</v>
       </c>
@@ -12454,7 +12451,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>352180397235</v>
       </c>
@@ -12504,7 +12501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>352184390890</v>
       </c>
@@ -12536,7 +12533,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>352184599723</v>
       </c>
@@ -12568,7 +12565,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>352185006958</v>
       </c>
@@ -12603,7 +12600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>352182361061</v>
       </c>
@@ -12638,7 +12635,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>352182994890</v>
       </c>
@@ -12670,7 +12667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>352184161428</v>
       </c>
@@ -12702,7 +12699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>352184206583</v>
       </c>
@@ -12734,7 +12731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>352180826486</v>
       </c>
@@ -12772,7 +12769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>352181375096</v>
       </c>
@@ -12804,7 +12801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>352184623236</v>
       </c>
@@ -12827,7 +12824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>352185010444</v>
       </c>
@@ -12859,7 +12856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>352180029730</v>
       </c>
@@ -12903,7 +12900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>352183474370</v>
       </c>
@@ -12941,7 +12938,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>352180071647</v>
       </c>
@@ -12973,7 +12970,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>352181230780</v>
       </c>
@@ -13014,7 +13011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>352183698156</v>
       </c>
@@ -13040,7 +13037,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>352181467573</v>
       </c>
@@ -13081,7 +13078,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>352184151242</v>
       </c>
@@ -13113,7 +13110,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>352181996109</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>352183159110</v>
       </c>
@@ -13183,7 +13180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>352181210145</v>
       </c>
@@ -13215,7 +13212,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="88" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>352181963097</v>
       </c>
@@ -13268,7 +13265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="89" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>352180516837</v>
       </c>
@@ -13300,7 +13297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="90" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>352181884877</v>
       </c>
@@ -13332,7 +13329,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="91" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>352180399834</v>
       </c>
@@ -13385,7 +13382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="92" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>352171866452</v>
       </c>
@@ -13438,7 +13435,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>352184982942</v>
       </c>
@@ -13479,7 +13476,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>352184977330</v>
       </c>
@@ -13514,7 +13511,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>352183307720</v>
       </c>
@@ -13555,7 +13552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>352183638094</v>
       </c>
@@ -13590,7 +13587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>352184747233</v>
       </c>
@@ -13622,7 +13619,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>352180185292</v>
       </c>
@@ -13678,7 +13675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>352180547594</v>
       </c>
@@ -13731,7 +13728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>352184222881</v>
       </c>
@@ -13772,7 +13769,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>352181114003</v>
       </c>
@@ -13804,7 +13801,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>352185003452</v>
       </c>
@@ -13839,7 +13836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>352183223181</v>
       </c>
@@ -13871,7 +13868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>352183655311</v>
       </c>
@@ -13903,7 +13900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>352182803052</v>
       </c>
@@ -13944,7 +13941,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>352184708679</v>
       </c>
@@ -13979,7 +13976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>352183638101</v>
       </c>
@@ -14032,7 +14029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>352184093136</v>
       </c>
@@ -14064,7 +14061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>352182998034</v>
       </c>
@@ -14102,7 +14099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>352180884373</v>
       </c>
@@ -14155,7 +14152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>352184969326</v>
       </c>
@@ -14187,7 +14184,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>352185099171</v>
       </c>
@@ -14219,7 +14216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>352184309234</v>
       </c>
@@ -14251,7 +14248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>352181405893</v>
       </c>
@@ -14286,7 +14283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>352183365046</v>
       </c>
@@ -14318,7 +14315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>352183428020</v>
       </c>
@@ -14350,7 +14347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>352183324188</v>
       </c>
@@ -14382,7 +14379,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>352183595200</v>
       </c>
@@ -14414,7 +14411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>352180647176</v>
       </c>
@@ -14452,7 +14449,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>352183317990</v>
       </c>
@@ -14487,7 +14484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>352182515400</v>
       </c>
@@ -14510,7 +14507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>352184912978</v>
       </c>
@@ -14542,7 +14539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>352183704638</v>
       </c>
@@ -14583,7 +14580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>352180416005</v>
       </c>
@@ -14615,7 +14612,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>352182801553</v>
       </c>
@@ -14647,7 +14644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>352180537039</v>
       </c>
@@ -14679,7 +14676,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>352180699817</v>
       </c>
@@ -14702,7 +14699,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>352183323370</v>
       </c>
@@ -14755,7 +14752,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>352184616493</v>
       </c>
@@ -14781,7 +14778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>352185102672</v>
       </c>
@@ -14825,7 +14822,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>352183108523</v>
       </c>
@@ -14869,7 +14866,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>352183718041</v>
       </c>
@@ -14901,7 +14898,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>352185005667</v>
       </c>
@@ -14936,7 +14933,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>352181431963</v>
       </c>
@@ -14968,7 +14965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>352182714671</v>
       </c>
@@ -15000,7 +14997,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>352183878387</v>
       </c>
@@ -15032,7 +15029,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>352182311951</v>
       </c>
@@ -15076,7 +15073,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>352183112850</v>
       </c>
@@ -15111,7 +15108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>352184618660</v>
       </c>
@@ -15146,7 +15143,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>352183691492</v>
       </c>
@@ -15181,7 +15178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>352181478140</v>
       </c>
@@ -15219,7 +15216,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>352184005344</v>
       </c>
@@ -15251,7 +15248,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>352183347016</v>
       </c>
@@ -15286,7 +15283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>352180520935</v>
       </c>
@@ -15318,7 +15315,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>352182478034</v>
       </c>
@@ -15350,7 +15347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>352181481256</v>
       </c>
@@ -15388,7 +15385,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>352182559124</v>
       </c>
@@ -15414,7 +15411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>352183902572</v>
       </c>
@@ -15458,7 +15455,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="149" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>352185266344</v>
       </c>
@@ -15490,7 +15487,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="150" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>352182113761</v>
       </c>
@@ -15516,7 +15513,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="151" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>352181437724</v>
       </c>
@@ -15548,7 +15545,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>352180060502</v>
       </c>
@@ -15571,7 +15568,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>352180449760</v>
       </c>
@@ -15606,7 +15603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>352184295591</v>
       </c>
@@ -15647,7 +15644,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>352182336567</v>
       </c>
@@ -15688,7 +15685,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>352182081204</v>
       </c>
@@ -15714,7 +15711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>352180911673</v>
       </c>
@@ -15740,7 +15737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>352182420303</v>
       </c>
@@ -15781,7 +15778,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>352184190138</v>
       </c>
@@ -15816,7 +15813,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>352181108765</v>
       </c>
@@ -15866,7 +15863,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>352185025976</v>
       </c>
@@ -15907,7 +15904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>352180034069</v>
       </c>
@@ -15948,7 +15945,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>352185142048</v>
       </c>
@@ -15986,7 +15983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>352183499101</v>
       </c>
@@ -16021,7 +16018,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>352184406198</v>
       </c>
@@ -16053,7 +16050,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>352181890266</v>
       </c>
@@ -16091,7 +16088,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>352185047769</v>
       </c>
@@ -16123,7 +16120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>352180915714</v>
       </c>
@@ -16155,7 +16152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>352181252037</v>
       </c>
@@ -16199,7 +16196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>352181437273</v>
       </c>
@@ -16252,7 +16249,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>352184244409</v>
       </c>
@@ -16293,7 +16290,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>352183929950</v>
       </c>
@@ -16325,7 +16322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>352181113552</v>
       </c>
@@ -16357,7 +16354,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>352186489146</v>
       </c>
@@ -16392,7 +16389,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>352184363796</v>
       </c>
@@ -16424,7 +16421,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>352183031417</v>
       </c>
@@ -16456,7 +16453,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="177" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>352183698317</v>
       </c>
@@ -16491,7 +16488,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="178" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>352182543306</v>
       </c>
@@ -16523,7 +16520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>352180683965</v>
       </c>
@@ -16564,7 +16561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="180" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>352180642948</v>
       </c>
@@ -16608,7 +16605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="181" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>352184944210</v>
       </c>
@@ -16640,7 +16637,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="182" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>352186517562</v>
       </c>
@@ -16675,7 +16672,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="183" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>352182862613</v>
       </c>
@@ -16707,7 +16704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>352180999476</v>
       </c>
@@ -16739,7 +16736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>352180329194</v>
       </c>
@@ -16762,7 +16759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>352185190340</v>
       </c>
@@ -16794,7 +16791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>352181657111</v>
       </c>
@@ -16826,7 +16823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>352184579001</v>
       </c>
@@ -16861,7 +16858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>352181431770</v>
       </c>
@@ -16893,7 +16890,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>352184915150</v>
       </c>
@@ -16925,7 +16922,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="191" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>352183681880</v>
       </c>
@@ -16969,7 +16966,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="192" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>352180151142</v>
       </c>
@@ -17010,7 +17007,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>352182164520</v>
       </c>
@@ -17042,7 +17039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>352181561135</v>
       </c>
@@ -17080,7 +17077,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>352181130375</v>
       </c>
@@ -17112,7 +17109,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>352180907920</v>
       </c>
@@ -17144,7 +17141,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="197" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>352185161256</v>
       </c>
@@ -17176,7 +17173,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>352180503098</v>
       </c>
@@ -17208,7 +17205,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>352180888432</v>
       </c>
@@ -17240,7 +17237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="200" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>352181657705</v>
       </c>
@@ -17272,7 +17269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>352183288089</v>
       </c>
@@ -17304,7 +17301,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>352184991665</v>
       </c>
@@ -17339,7 +17336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>352181431478</v>
       </c>
@@ -17371,7 +17368,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="204" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>352180727912</v>
       </c>
@@ -17403,7 +17400,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>352181369530</v>
       </c>
@@ -17441,7 +17438,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="206" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>352184899399</v>
       </c>
@@ -17476,7 +17473,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>352184416029</v>
       </c>
@@ -17508,7 +17505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>352181866423</v>
       </c>
@@ -17552,7 +17549,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>352183615854</v>
       </c>
@@ -17578,7 +17575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>352183972871</v>
       </c>
@@ -17631,7 +17628,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>352185007263</v>
       </c>
@@ -17666,7 +17663,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>352185007143</v>
       </c>
@@ -17701,7 +17698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>352184351879</v>
       </c>
@@ -17739,7 +17736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="214" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>352184145796</v>
       </c>
@@ -17783,7 +17780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="215" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>352182808177</v>
       </c>
@@ -17815,7 +17812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>352182981376</v>
       </c>
@@ -17853,7 +17850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="217" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>352183299169</v>
       </c>
@@ -17885,7 +17882,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="218" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>352180888578</v>
       </c>
@@ -17938,7 +17935,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="219" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>352184816844</v>
       </c>
@@ -17976,7 +17973,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="220" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>352181301535</v>
       </c>
@@ -18026,7 +18023,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="221" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>352180462995</v>
       </c>
@@ -18064,7 +18061,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>352184808671</v>
       </c>
@@ -18096,7 +18093,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>352180637762</v>
       </c>
@@ -18134,7 +18131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="224" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>352183432944</v>
       </c>
@@ -18166,7 +18163,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>352183034315</v>
       </c>
@@ -18201,7 +18198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>352184084881</v>
       </c>
@@ -18242,7 +18239,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="227" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>352183220165</v>
       </c>
@@ -18286,7 +18283,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="228" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>352185005982</v>
       </c>
@@ -18321,7 +18318,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="229" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>352183966020</v>
       </c>
@@ -18362,7 +18359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="230" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>352180530066</v>
       </c>
@@ -18406,7 +18403,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="231" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>352184579053</v>
       </c>
@@ -18444,7 +18441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="232" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>352181127370</v>
       </c>
@@ -18485,7 +18482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="233" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>352180770747</v>
       </c>
@@ -18517,7 +18514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="234" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>352183683412</v>
       </c>
@@ -18564,7 +18561,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="235" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>352183343091</v>
       </c>
@@ -18596,7 +18593,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>352180645877</v>
       </c>
@@ -18646,7 +18643,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="237" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>352183103857</v>
       </c>
@@ -18678,7 +18675,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="238" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>352182807896</v>
       </c>
@@ -18710,7 +18707,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="239" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>352184387648</v>
       </c>
@@ -18742,7 +18739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="240" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>352185235624</v>
       </c>
@@ -18795,7 +18792,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="241" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>352184785172</v>
       </c>
@@ -18827,7 +18824,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="242" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>352185019560</v>
       </c>
@@ -18862,7 +18859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>352180603815</v>
       </c>
@@ -18915,7 +18912,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="244" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>352182601063</v>
       </c>
@@ -18947,7 +18944,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="245" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>352182554657</v>
       </c>
@@ -18979,7 +18976,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="246" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>352181648250</v>
       </c>
@@ -19011,7 +19008,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="247" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>352184989532</v>
       </c>
@@ -19046,7 +19043,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="248" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>352183367441</v>
       </c>
@@ -19087,7 +19084,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>352185262739</v>
       </c>
@@ -19122,7 +19119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>352185004727</v>
       </c>
@@ -19163,7 +19160,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>352184354149</v>
       </c>
@@ -19195,7 +19192,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="252" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>352180845866</v>
       </c>
@@ -19245,7 +19242,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="253" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>352184105071</v>
       </c>
@@ -19271,7 +19268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="254" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>352184191605</v>
       </c>
@@ -19306,7 +19303,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>352183233879</v>
       </c>
@@ -19338,7 +19335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>352184388424</v>
       </c>
@@ -19370,7 +19367,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>352182612982</v>
       </c>
@@ -19414,7 +19411,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>352181425369</v>
       </c>
@@ -19446,7 +19443,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="259" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>352184226638</v>
       </c>
@@ -19487,7 +19484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="260" spans="1:29" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>352183691596</v>
       </c>
@@ -19520,19 +19517,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC260">
-    <filterColumn colId="8">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters blank="1"/>
-    </filterColumn>
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC260"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -45468,8 +45453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC225"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
